--- a/biology/Zoologie/Geodia_hentscheli/Geodia_hentscheli.xlsx
+++ b/biology/Zoologie/Geodia_hentscheli/Geodia_hentscheli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geodia hentscheli est une espèce d'éponges siliceuses de la famille des Geodiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite par Paco Cárdenas (d), Hans Tore Rapp (d), Christoffer Schander (d) et Ole S. Tendal (d) en 2010[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par Paco Cárdenas (d), Hans Tore Rapp (d), Christoffer Schander (d) et Ole S. Tendal (d) en 2010.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geodia hentscheli est présente dans l'océan Atlantique Nord, notamment sur la dorsale médio-atlantique[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geodia hentscheli est présente dans l'océan Atlantique Nord, notamment sur la dorsale médio-atlantique.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Paco Cárdenas, Hans Tore Rapp, Christoffer Schander et Ole S. Tendal, « Molecular taxonomy and phylogeny of the Geodiidae (Porifera,Demospongiae, Astrophorida) - combining phylogenetic and Linnaean classification », Zoologica Scripta, Wiley-Blackwell, vol. 39, no 1,‎ janvier 2010, p. 89-106 (ISSN 0300-3256 et 1463-6409, DOI 10.1111/J.1463-6409.2009.00402.X, lire en ligne)</t>
         </is>
